--- a/ParkByeongHyeon/kakao_DBSCAN_clusters.xlsx
+++ b/ParkByeongHyeon/kakao_DBSCAN_clusters.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>num</t>
   </si>
@@ -28,16 +28,10 @@
     <t>top_15_topics</t>
   </si>
   <si>
-    <t>['buffalo', 'n2']</t>
-  </si>
-  <si>
-    <t>['hbase-packet-inspector', 'cmux', 'hbase-region-inspector', 'cuesheet', 'mango']</t>
-  </si>
-  <si>
-    <t>[('python', 2), (' machine-learning', 2), (' cpp', 1), (' matrix-factorization', 1), (' recommender-system', 1), (' go', 1), (' ml', 1), (' nearest-neighbor-search', 1), (' approximate-nearest-neighbor-search', 1), (' knn', 1), (' approximate', 1), (' k-nearest-neighbors', 1)]</t>
-  </si>
-  <si>
-    <t>[(' hbase', 3), ('kafka', 1), (' pcap', 1), ('hadoop', 1), (' fzf', 1), (' cdh', 1), ('hbase', 1), ('scala', 1), (' magic', 1), (' spark', 1), (' apache-spark', 1), (' yarn', 1), (' mango', 1), ('search', 1), (' json', 1)]</t>
+    <t>['buffalo', 'n2', 'hbase-packet-inspector', 'cmux', 'hbase-region-inspector', 'cuesheet', 'mango']</t>
+  </si>
+  <si>
+    <t>[(' hbase', 3), ('python', 2), (' machine-learning', 2), (' cpp', 1), (' matrix-factorization', 1), (' recommender-system', 1), (' go', 1), (' ml', 1), (' nearest-neighbor-search', 1), (' approximate-nearest-neighbor-search', 1), (' knn', 1), (' approximate', 1), (' k-nearest-neighbors', 1), ('kafka', 1), (' pcap', 1)]</t>
   </si>
 </sst>
 </file>
@@ -395,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,24 +417,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
         <v>5</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/ParkByeongHyeon/kakao_DBSCAN_clusters.xlsx
+++ b/ParkByeongHyeon/kakao_DBSCAN_clusters.xlsx
@@ -411,7 +411,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
